--- a/data.xlsx
+++ b/data.xlsx
@@ -74,10 +74,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,18 +419,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
-        <v>77</v>
-      </c>
-      <c r="F2" s="2">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3">
         <v>4</v>
       </c>
     </row>
@@ -436,18 +439,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
-      </c>
-      <c r="F3" s="2">
+        <v>150</v>
+      </c>
+      <c r="F3" s="3">
         <v>5</v>
       </c>
     </row>
@@ -456,19 +459,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
         <v>75</v>
       </c>
-      <c r="D4" s="2">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
+      <c r="F4" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,19 +479,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>80</v>
       </c>
-      <c r="F5" s="2">
-        <v>3</v>
+      <c r="F5" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,18 +499,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
         <v>40</v>
       </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -516,19 +519,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -536,19 +539,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,19 +559,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -579,16 +582,16 @@
         <v>176</v>
       </c>
       <c r="C10" s="2">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,19 +599,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,19 +619,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2">
-        <v>105</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,19 +639,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,18 +659,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
     </row>
@@ -676,18 +679,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
     </row>
@@ -696,18 +699,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3">
         <v>4</v>
       </c>
     </row>
@@ -716,18 +719,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
         <v>50</v>
       </c>
-      <c r="E17" s="2">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>5</v>
       </c>
     </row>
@@ -736,18 +739,596 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
+        <v>184</v>
+      </c>
+      <c r="C18" s="2">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2">
+        <v>110</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>175</v>
+      </c>
+      <c r="C19" s="2">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>185</v>
+      </c>
+      <c r="C22" s="2">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>190</v>
+      </c>
+      <c r="C23" s="2">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>181</v>
+      </c>
+      <c r="C24" s="2">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2">
+        <v>35</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>184</v>
+      </c>
+      <c r="C25" s="2">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2">
+        <v>60</v>
+      </c>
+      <c r="E25" s="2">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>190</v>
+      </c>
+      <c r="C26" s="2">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>179</v>
+      </c>
+      <c r="C27" s="2">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>170</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>180</v>
+      </c>
+      <c r="C29" s="2">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>174</v>
+      </c>
+      <c r="C31" s="2">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>157</v>
+      </c>
+      <c r="C32" s="2">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2">
+        <v>70</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>165</v>
+      </c>
+      <c r="C33" s="2">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>187</v>
+      </c>
+      <c r="C34" s="2">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>175</v>
+      </c>
+      <c r="C35" s="3">
+        <v>95</v>
+      </c>
+      <c r="D35" s="2">
+        <v>90</v>
+      </c>
+      <c r="E35" s="2">
+        <v>101</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
         <v>178</v>
       </c>
-      <c r="C18" s="2">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C36" s="2">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>176</v>
+      </c>
+      <c r="C37" s="2">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>187</v>
+      </c>
+      <c r="C38" s="2">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>163</v>
+      </c>
+      <c r="C39" s="2">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>80</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>178</v>
+      </c>
+      <c r="C40" s="2">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>168</v>
+      </c>
+      <c r="C41" s="2">
+        <v>64</v>
+      </c>
+      <c r="D41" s="2">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2">
         <v>45</v>
       </c>
-      <c r="E18" s="2">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>184</v>
+      </c>
+      <c r="C42" s="2">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2">
+        <v>60</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2">
+        <v>56</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>176</v>
+      </c>
+      <c r="C44" s="2">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2">
+        <v>56</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>176</v>
+      </c>
+      <c r="C45" s="2">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2">
+        <v>60</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>190</v>
+      </c>
+      <c r="C46" s="2">
+        <v>112</v>
+      </c>
+      <c r="D46" s="2">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2">
+        <v>60</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>172</v>
+      </c>
+      <c r="C47" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2">
+        <v>105</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>180</v>
+      </c>
+      <c r="C48" s="2">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2">
+        <v>80</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2">
+        <v>72</v>
+      </c>
+      <c r="D49" s="3">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3">
+        <v>95</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>173</v>
+      </c>
+      <c r="C50" s="2">
+        <v>54</v>
+      </c>
+      <c r="D50" s="2">
+        <v>41</v>
+      </c>
+      <c r="E50" s="2">
+        <v>59</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>180</v>
+      </c>
+      <c r="C51" s="2">
+        <v>82</v>
+      </c>
+      <c r="D51" s="2">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2">
+        <v>81</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>179</v>
+      </c>
+      <c r="C52" s="2">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2">
+        <v>70</v>
+      </c>
+      <c r="F52" s="3">
         <v>5</v>
       </c>
     </row>
